--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9730776D-3642-4F74-87B4-2F3C7100D4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7CB631-55A9-4268-A639-50B2E9330045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,15 +393,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,6 +418,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -713,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -770,12 +770,12 @@
       <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -811,12 +811,12 @@
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -832,12 +832,12 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -873,12 +873,12 @@
       <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7CB631-55A9-4268-A639-50B2E9330045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2D263-2F54-468A-984B-5D0146ABFCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>灼烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>repeat_count</t>
   </si>
   <si>
@@ -198,6 +194,516 @@
   </si>
   <si>
     <t>frost_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>每点</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>护甲值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>智慧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>每点</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>魔力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>敏捷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>每点</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inconsolata"/>
+      </rPr>
+      <t>+0.025</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>闪避</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Dream Han Sans J W21"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻击</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Dream Han Sans J W21"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>伤害</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲闪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤几率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frost_damage</t>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerability_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wisdom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_speed</t>
+  </si>
+  <si>
+    <t>critical_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vulnerability_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_damage</t>
+  </si>
+  <si>
+    <t>light_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic_damage</t>
+  </si>
+  <si>
+    <t>toxic_damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healing_effciency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_resistance</t>
+  </si>
+  <si>
+    <t>light_resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire_resistance</t>
+  </si>
+  <si>
+    <t>fire_resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>health_regeneration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical_resistance</t>
+  </si>
+  <si>
+    <t>physical_resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frost_resistance</t>
+  </si>
+  <si>
+    <t>frost_resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toxic_resistance</t>
+  </si>
+  <si>
+    <t>toxic_resistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电抗性 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性+ 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电伤害 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素伤害 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加抗性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜抗性百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电抗性百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜伤害 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电伤害 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素伤害 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰抗性 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电抗性 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性+ 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理抗性 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +741,56 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Dream Han Sans J W21"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +845,20 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -341,21 +907,6 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color theme="1"/>
@@ -376,23 +927,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -429,9 +1085,51 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="A标题" xfId="1" xr:uid="{38665B28-1CA9-4169-992B-71FBDCAB8781}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="内容" xfId="2" xr:uid="{7E4B2AFF-6E4D-44EB-945E-3FD632B5C939}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,73 +1407,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
+      <c r="L1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -811,12 +1509,12 @@
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="L2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -832,53 +1530,53 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
+      <c r="L3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -894,89 +1592,89 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8" t="s">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
         <v>1001</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="6">
-        <v>3</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -985,11 +1683,11 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
@@ -1009,156 +1707,830 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="6">
+        <v>36</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="5">
         <v>3</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>45</v>
+      <c r="O8" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
+      <c r="B10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="5">
+        <v>3</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
+      <c r="B12" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="5">
+        <v>3</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
+      <c r="B14" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="5">
+        <v>3</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="11"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1012</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="5">
+        <v>3</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>1014</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>1015</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N21" s="5">
+        <v>3</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>1016</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" s="5">
+        <v>3</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>1017</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N23" s="5">
+        <v>3</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>1018</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N24" s="5">
+        <v>3</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>1019</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N25" s="5">
+        <v>3</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>1020</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" s="5">
+        <v>3</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1174,14 +2546,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2D263-2F54-468A-984B-5D0146ABFCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173CE4D-EA1F-42DD-98BB-DBE0417FB540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1049,6 +1049,25 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="2" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1088,41 +1107,22 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="2" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1411,7 +1411,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1468,12 +1468,12 @@
       <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="11"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1509,12 +1509,12 @@
       <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1530,12 +1530,12 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="20"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1571,12 +1571,12 @@
       <c r="K4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -1671,7 +1671,7 @@
         <v>24</v>
       </c>
       <c r="N7" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>40</v>
@@ -1716,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="N8" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>44</v>
@@ -1761,7 +1761,7 @@
         <v>24</v>
       </c>
       <c r="N9" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>89</v>
@@ -1806,7 +1806,7 @@
         <v>24</v>
       </c>
       <c r="N10" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>91</v>
@@ -1851,7 +1851,7 @@
         <v>24</v>
       </c>
       <c r="N11" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>79</v>
@@ -1896,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="N12" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>98</v>
@@ -1941,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="N13" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>104</v>
@@ -1986,7 +1986,7 @@
         <v>24</v>
       </c>
       <c r="N14" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>96</v>
@@ -2031,7 +2031,7 @@
         <v>24</v>
       </c>
       <c r="N15" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>106</v>
@@ -2076,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="N16" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>102</v>
@@ -2121,7 +2121,7 @@
         <v>141</v>
       </c>
       <c r="N17" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>40</v>
@@ -2166,7 +2166,7 @@
         <v>141</v>
       </c>
       <c r="N18" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>44</v>
@@ -2211,7 +2211,7 @@
         <v>141</v>
       </c>
       <c r="N19" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>89</v>
@@ -2256,7 +2256,7 @@
         <v>141</v>
       </c>
       <c r="N20" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>91</v>
@@ -2301,7 +2301,7 @@
         <v>141</v>
       </c>
       <c r="N21" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>79</v>
@@ -2346,7 +2346,7 @@
         <v>141</v>
       </c>
       <c r="N22" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O22" s="6" t="s">
         <v>98</v>
@@ -2391,7 +2391,7 @@
         <v>141</v>
       </c>
       <c r="N23" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>104</v>
@@ -2436,7 +2436,7 @@
         <v>141</v>
       </c>
       <c r="N24" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>96</v>
@@ -2481,7 +2481,7 @@
         <v>141</v>
       </c>
       <c r="N25" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>106</v>
@@ -2526,7 +2526,7 @@
         <v>141</v>
       </c>
       <c r="N26" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>102</v>
@@ -2549,7 +2549,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2564,252 +2564,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="32"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="11" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="32"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="27" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="11" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173CE4D-EA1F-42DD-98BB-DBE0417FB540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBCA98-9196-46D9-A7B6-F5825DBD24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="199">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +182,6 @@
   </si>
   <si>
     <t>*compute_values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -551,9 +559,6 @@
   </si>
   <si>
     <t>physical_resistance</t>
-  </si>
-  <si>
-    <t>physical_resistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,10 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加抗性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火焰百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,19 +700,209 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理抗性 + 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命回复</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗效率</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>易伤伤害</t>
+  </si>
+  <si>
+    <t>易伤率</t>
+  </si>
+  <si>
+    <t>易伤率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智慧</t>
+  </si>
+  <si>
+    <t>智慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>wisdom</t>
+  </si>
+  <si>
+    <t>agility</t>
+  </si>
+  <si>
+    <t>healing_effciency</t>
+  </si>
+  <si>
+    <t>health_regeneration</t>
+  </si>
+  <si>
+    <t>evasion</t>
+  </si>
+  <si>
+    <t>vulnerability_damage</t>
+  </si>
+  <si>
+    <t>vulnerability_rate</t>
+  </si>
+  <si>
+    <t>critical_damage</t>
+  </si>
+  <si>
+    <t>critical_rate</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+  </si>
+  <si>
+    <t>攻击范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+  </si>
+  <si>
+    <t>视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围百分比</t>
+  </si>
+  <si>
+    <t>视野百分比</t>
+  </si>
+  <si>
+    <t>最大生命值百分比</t>
+  </si>
+  <si>
+    <t>生命回复百分比</t>
+  </si>
+  <si>
+    <t>防御百分比</t>
+  </si>
+  <si>
+    <t>闪避百分比</t>
+  </si>
+  <si>
+    <t>幸运百分比</t>
+  </si>
+  <si>
+    <t>速度百分比</t>
+  </si>
+  <si>
+    <t>治疗效率百分比</t>
+  </si>
+  <si>
+    <t>暴击率百分比</t>
+  </si>
+  <si>
+    <t>暴击伤害百分比</t>
+  </si>
+  <si>
+    <t>易伤伤害百分比</t>
+  </si>
+  <si>
+    <t>易伤率百分比</t>
+  </si>
+  <si>
+    <t>魔力百分比</t>
+  </si>
+  <si>
+    <t>攻击速度百分比</t>
+  </si>
+  <si>
+    <t>力量百分比</t>
+  </si>
+  <si>
+    <t>智慧百分比</t>
+  </si>
+  <si>
+    <t>敏捷百分比</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,6 +979,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB2CACD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1039,7 +1236,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1124,6 +1321,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1407,11 +1607,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1638,10 +1838,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -1664,8 +1864,8 @@
       <c r="K7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>39</v>
+      <c r="L7" s="5">
+        <v>1001</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>24</v>
@@ -1674,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -1683,11 +1883,11 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" s="3" t="b">
         <v>0</v>
       </c>
@@ -1709,8 +1909,8 @@
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>39</v>
+      <c r="L8" s="5">
+        <v>1002</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>24</v>
@@ -1719,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -1728,10 +1928,10 @@
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -1754,8 +1954,8 @@
       <c r="K9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>39</v>
+      <c r="L9" s="5">
+        <v>1003</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>24</v>
@@ -1764,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -1773,10 +1973,10 @@
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -1799,8 +1999,8 @@
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>39</v>
+      <c r="L10" s="5">
+        <v>1004</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>24</v>
@@ -1809,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -1818,10 +2018,10 @@
         <v>1005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -1844,8 +2044,8 @@
       <c r="K11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>39</v>
+      <c r="L11" s="5">
+        <v>1005</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>24</v>
@@ -1854,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -1863,10 +2063,10 @@
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -1889,8 +2089,8 @@
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>121</v>
+      <c r="L12" s="5">
+        <v>1006</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>24</v>
@@ -1899,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1908,10 +2108,10 @@
         <v>1007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -1934,8 +2134,8 @@
       <c r="K13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>121</v>
+      <c r="L13" s="5">
+        <v>1007</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>24</v>
@@ -1944,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -1953,10 +2153,10 @@
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -1979,8 +2179,8 @@
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>121</v>
+      <c r="L14" s="5">
+        <v>1008</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>24</v>
@@ -1989,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -1998,10 +2198,10 @@
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -2024,8 +2224,8 @@
       <c r="K15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>121</v>
+      <c r="L15" s="5">
+        <v>1009</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>24</v>
@@ -2034,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -2043,10 +2243,10 @@
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -2069,8 +2269,8 @@
       <c r="K16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>121</v>
+      <c r="L16" s="5">
+        <v>1010</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>24</v>
@@ -2079,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -2088,10 +2288,10 @@
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2114,17 +2314,17 @@
       <c r="K17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -2133,10 +2333,10 @@
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2159,17 +2359,17 @@
       <c r="K18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>39</v>
+      <c r="L18" s="5">
+        <v>1012</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
@@ -2178,10 +2378,10 @@
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2204,17 +2404,17 @@
       <c r="K19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>39</v>
+      <c r="L19" s="5">
+        <v>1013</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N19" s="5">
         <v>0</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
@@ -2223,10 +2423,10 @@
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2249,17 +2449,17 @@
       <c r="K20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>39</v>
+      <c r="L20" s="5">
+        <v>1014</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -2268,10 +2468,10 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2294,17 +2494,17 @@
       <c r="K21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>39</v>
+      <c r="L21" s="5">
+        <v>1015</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N21" s="5">
         <v>0</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -2313,43 +2513,43 @@
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1016</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="N22" s="5">
         <v>0</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
@@ -2358,10 +2558,10 @@
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2384,17 +2584,17 @@
       <c r="K23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>121</v>
+      <c r="L23" s="5">
+        <v>1017</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N23" s="5">
         <v>0</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
@@ -2403,10 +2603,10 @@
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -2429,17 +2629,17 @@
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>121</v>
+      <c r="L24" s="5">
+        <v>1018</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N24" s="5">
         <v>0</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -2448,10 +2648,10 @@
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -2474,17 +2674,17 @@
       <c r="K25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>121</v>
+      <c r="L25" s="5">
+        <v>1019</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N25" s="5">
         <v>0</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
@@ -2493,11 +2693,9 @@
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>140</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="3" t="b">
         <v>0</v>
       </c>
@@ -2519,17 +2717,1565 @@
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>121</v>
+      <c r="L26" s="5">
+        <v>1020</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N26" s="5">
         <v>0</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>1021</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1020</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>1022</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1021</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>1023</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1022</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>1024</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1023</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>1025</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>1026</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1025</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>1027</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1026</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>1028</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1027</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>1029</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1028</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>1030</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1029</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>1031</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1030</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>1032</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1031</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>1033</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1032</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
+        <v>1034</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1033</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>1035</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1034</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>1036</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>1</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1035</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>1037</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1036</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>1038</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1037</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>1039</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1038</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>1040</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1039</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>1041</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1040</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>1042</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1041</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>1043</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1042</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>1044</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>1</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1043</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>1045</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>1</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1044</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>1046</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>1</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1045</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>1047</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>1</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1046</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3">
+        <v>1048</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1047</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>1049</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1048</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <v>1050</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>1</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1049</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3">
+        <v>1051</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1050</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
+        <v>1052</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1051</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3">
+        <v>1053</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1052</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <v>1054</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1053</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3">
+        <v>1055</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1054</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3">
+        <v>1056</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="5">
+        <v>1055</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2545,11 +4291,267 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="str">
+        <f>A1&amp;B1</f>
+        <v>攻击范围百分比</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C20" si="0">A2&amp;B2</f>
+        <v>视野百分比</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>最大生命值百分比</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>生命回复百分比</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>防御百分比</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>闪避百分比</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>幸运百分比</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>速度百分比</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>治疗效率百分比</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>暴击率百分比</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>暴击伤害百分比</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>易伤伤害百分比</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>易伤率百分比</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>魔力百分比</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>攻击速度百分比</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>力量百分比</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>智慧百分比</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>敏捷百分比</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>攻击范围百分比</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>视野百分比</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2565,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="30"/>
@@ -2577,13 +4579,13 @@
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
@@ -2593,13 +4595,13 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
@@ -2609,13 +4611,13 @@
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -2625,7 +4627,7 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="32"/>
       <c r="C5" s="33"/>
@@ -2633,180 +4635,180 @@
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
       <c r="D12" s="14"/>
       <c r="E12" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBCA98-9196-46D9-A7B6-F5825DBD24E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CA6EA-A138-4F93-9C9C-D69100161B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,9 +54,6 @@
     <t>infinite</t>
   </si>
   <si>
-    <t>tigger</t>
-  </si>
-  <si>
     <t>prepare_time</t>
   </si>
   <si>
@@ -165,15 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>触发器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>buffs.ComputeData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1265,6 +1254,9 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1321,9 +1313,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1607,11 +1596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1626,26 +1615,25 @@
     <col min="8" max="8" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1654,71 +1642,65 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1729,58 +1711,54 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1791,21 +1769,20 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="L5" s="5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1818,30 +1795,29 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="L6" s="7" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -1856,82 +1832,76 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="5">
-        <v>1001</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1002</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1003</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -1946,37 +1916,34 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9" s="5">
         <v>1003</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1004</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -1991,37 +1958,34 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
         <v>1004</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1005</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -2036,37 +2000,34 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="K11" s="5">
         <v>1005</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="b">
         <v>0</v>
@@ -2081,37 +2042,34 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12" s="5">
         <v>1006</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3" t="b">
         <v>0</v>
@@ -2126,37 +2084,34 @@
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="K13" s="5">
         <v>1007</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
@@ -2171,37 +2126,34 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14" s="5">
         <v>1008</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="5">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -2216,37 +2168,34 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K15" s="5">
         <v>1009</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -2261,37 +2210,34 @@
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="K16" s="5">
         <v>1010</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2306,37 +2252,34 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5">
+        <v>1011</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="5">
-        <v>1011</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N17" s="5">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2351,37 +2294,34 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="K18" s="5">
         <v>1012</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N18" s="5">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2396,37 +2336,34 @@
         <v>0</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="5">
+      <c r="K19" s="5">
         <v>1013</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2441,37 +2378,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="K20" s="5">
         <v>1014</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L20" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2486,82 +2420,76 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="K21" s="5">
         <v>1015</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1016</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1016</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2576,37 +2504,34 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="K23" s="5">
         <v>1017</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -2621,37 +2546,34 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="K24" s="5">
         <v>1018</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -2666,34 +2588,31 @@
         <v>0</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="K25" s="5">
         <v>1019</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="b">
@@ -2709,34 +2628,31 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="K26" s="5">
         <v>1020</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L26" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="b">
@@ -2752,34 +2668,31 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="K27" s="5">
         <v>1020</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="b">
@@ -2795,34 +2708,31 @@
         <v>0</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="5">
+      <c r="K28" s="5">
         <v>1021</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="5">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>1023</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="b">
@@ -2838,34 +2748,31 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="K29" s="5">
         <v>1022</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>1024</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="b">
@@ -2881,34 +2788,31 @@
         <v>0</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="K30" s="5">
         <v>1023</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="5">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>1025</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="b">
@@ -2924,34 +2828,31 @@
         <v>0</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="5">
+      <c r="K31" s="5">
         <v>1024</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>1026</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="b">
@@ -2967,34 +2868,31 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="K32" s="5">
         <v>1025</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="5">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="b">
@@ -3010,34 +2908,31 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="K33" s="5">
         <v>1026</v>
       </c>
-      <c r="M33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="5">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="b">
@@ -3053,34 +2948,31 @@
         <v>0</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="5">
+      <c r="K34" s="5">
         <v>1027</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="5">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="b">
@@ -3096,34 +2988,31 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L35" s="5">
+      <c r="K35" s="5">
         <v>1028</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="5">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="b">
@@ -3139,34 +3028,31 @@
         <v>0</v>
       </c>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="K36" s="5">
         <v>1029</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="5">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="b">
@@ -3182,34 +3068,31 @@
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="5">
+      <c r="K37" s="5">
         <v>1030</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="5">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>1032</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="b">
@@ -3225,34 +3108,31 @@
         <v>0</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="K38" s="5">
         <v>1031</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="5">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="b">
@@ -3268,34 +3148,31 @@
         <v>0</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
       </c>
-      <c r="K39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="5">
+      <c r="K39" s="5">
         <v>1032</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="5">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3">
         <v>1034</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="b">
@@ -3311,34 +3188,31 @@
         <v>0</v>
       </c>
       <c r="I40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L40" s="5">
+      <c r="K40" s="5">
         <v>1033</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="5">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>1035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="b">
@@ -3354,34 +3228,31 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="5">
+      <c r="K41" s="5">
         <v>1034</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="5">
-        <v>0</v>
-      </c>
-      <c r="O41" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>1036</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="b">
@@ -3397,34 +3268,31 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="K42" s="5">
         <v>1035</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="5">
-        <v>0</v>
-      </c>
-      <c r="O42" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>1037</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="b">
@@ -3440,34 +3308,31 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="5">
+      <c r="K43" s="5">
         <v>1036</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="5">
-        <v>0</v>
-      </c>
-      <c r="O43" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>1038</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3" t="b">
@@ -3483,34 +3348,31 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="5">
+      <c r="K44" s="5">
         <v>1037</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="5">
-        <v>0</v>
-      </c>
-      <c r="O44" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3" t="b">
@@ -3526,34 +3388,31 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="5">
+      <c r="K45" s="5">
         <v>1038</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N45" s="5">
-        <v>0</v>
-      </c>
-      <c r="O45" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="b">
@@ -3569,34 +3428,31 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L46" s="5">
+      <c r="K46" s="5">
         <v>1039</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N46" s="5">
-        <v>0</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="b">
@@ -3612,34 +3468,31 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="K47" s="5">
         <v>1040</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N47" s="5">
-        <v>0</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3" t="b">
@@ -3655,34 +3508,31 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="5">
+      <c r="K48" s="5">
         <v>1041</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N48" s="5">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L48" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="b">
@@ -3698,34 +3548,31 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L49" s="5">
+      <c r="K49" s="5">
         <v>1042</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N49" s="5">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L49" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="b">
@@ -3741,34 +3588,31 @@
         <v>0</v>
       </c>
       <c r="I50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L50" s="5">
+      <c r="K50" s="5">
         <v>1043</v>
       </c>
-      <c r="M50" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N50" s="5">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L50" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="b">
@@ -3784,34 +3628,31 @@
         <v>0</v>
       </c>
       <c r="I51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L51" s="5">
+      <c r="K51" s="5">
         <v>1044</v>
       </c>
-      <c r="M51" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N51" s="5">
-        <v>0</v>
-      </c>
-      <c r="O51" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L51" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3" t="b">
@@ -3827,34 +3668,31 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="5">
+      <c r="K52" s="5">
         <v>1045</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N52" s="5">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L52" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="b">
@@ -3870,34 +3708,31 @@
         <v>0</v>
       </c>
       <c r="I53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="5">
+      <c r="K53" s="5">
         <v>1046</v>
       </c>
-      <c r="M53" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N53" s="5">
-        <v>0</v>
-      </c>
-      <c r="O53" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L53" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3">
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="b">
@@ -3913,34 +3748,31 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L54" s="5">
+      <c r="K54" s="5">
         <v>1047</v>
       </c>
-      <c r="M54" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N54" s="5">
-        <v>0</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3">
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="b">
@@ -3956,34 +3788,31 @@
         <v>0</v>
       </c>
       <c r="I55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="3">
         <v>0</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L55" s="5">
+      <c r="K55" s="5">
         <v>1048</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N55" s="5">
-        <v>0</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L55" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3">
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3" t="b">
@@ -3999,34 +3828,31 @@
         <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L56" s="5">
+      <c r="K56" s="5">
         <v>1049</v>
       </c>
-      <c r="M56" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N56" s="5">
-        <v>0</v>
-      </c>
-      <c r="O56" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L56" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="b">
@@ -4042,34 +3868,31 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L57" s="5">
+      <c r="K57" s="5">
         <v>1050</v>
       </c>
-      <c r="M57" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N57" s="5">
-        <v>0</v>
-      </c>
-      <c r="O57" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="b">
@@ -4085,34 +3908,31 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L58" s="5">
+      <c r="K58" s="5">
         <v>1051</v>
       </c>
-      <c r="M58" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N58" s="5">
-        <v>0</v>
-      </c>
-      <c r="O58" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3">
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="b">
@@ -4128,34 +3948,31 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L59" s="5">
+      <c r="K59" s="5">
         <v>1052</v>
       </c>
-      <c r="M59" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N59" s="5">
-        <v>0</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3">
         <v>1054</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="b">
@@ -4171,34 +3988,31 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L60" s="5">
+      <c r="K60" s="5">
         <v>1053</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N60" s="5">
-        <v>0</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3">
         <v>1055</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="b">
@@ -4214,34 +4028,31 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="K61" s="5">
         <v>1054</v>
       </c>
-      <c r="M61" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N61" s="5">
-        <v>0</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3">
         <v>1056</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="b">
@@ -4257,33 +4068,30 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L62" s="5">
+      <c r="K62" s="5">
         <v>1055</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="N62" s="5">
-        <v>0</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>179</v>
+      <c r="L62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4301,11 +4109,11 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>174</v>
+      <c r="A1" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C1" t="str">
         <f>A1&amp;B1</f>
@@ -4313,11 +4121,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
-        <v>176</v>
+      <c r="A2" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C20" si="0">A2&amp;B2</f>
@@ -4325,11 +4133,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>138</v>
+      <c r="A3" s="16" t="s">
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -4337,11 +4145,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>140</v>
+      <c r="A4" s="16" t="s">
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -4349,11 +4157,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>141</v>
+      <c r="A5" s="16" t="s">
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -4361,11 +4169,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>144</v>
+      <c r="A6" s="16" t="s">
+        <v>141</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -4373,11 +4181,11 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>142</v>
+      <c r="A7" s="16" t="s">
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -4385,11 +4193,11 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>143</v>
+      <c r="A8" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -4397,11 +4205,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>146</v>
+      <c r="A9" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -4409,11 +4217,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>147</v>
+      <c r="A10" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -4421,11 +4229,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>148</v>
+      <c r="A11" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -4433,11 +4241,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>149</v>
+      <c r="A12" s="16" t="s">
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -4445,11 +4253,11 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>150</v>
+      <c r="A13" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -4457,11 +4265,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>152</v>
+      <c r="A14" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -4469,11 +4277,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>153</v>
+      <c r="A15" s="16" t="s">
+        <v>150</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -4481,11 +4289,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>154</v>
+      <c r="A16" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -4493,11 +4301,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>155</v>
+      <c r="A17" s="16" t="s">
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -4505,11 +4313,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
-        <v>157</v>
+      <c r="A18" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -4517,11 +4325,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>174</v>
+      <c r="A19" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -4529,11 +4337,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
-        <v>176</v>
+      <c r="A20" s="16" t="s">
+        <v>173</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -4566,11 +4374,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="30"/>
+      <c r="A1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="15"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -4579,13 +4387,13 @@
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="9"/>
@@ -4595,13 +4403,13 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="9"/>
@@ -4611,13 +4419,13 @@
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="9"/>
@@ -4626,189 +4434,189 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="33"/>
+      <c r="E12" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34CA6EA-A138-4F93-9C9C-D69100161B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9050E047-A21C-4AF0-8897-A6916D03A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,6 +885,82 @@
   </si>
   <si>
     <t>敏捷百分比</t>
+  </si>
+  <si>
+    <t>伤害计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础统计系数 * 基本伤害系数 * 暴击系数 * 技能系数的INC伤害 * 速度系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表伤害：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际伤害：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表伤害 * 技能武器伤害系数 (*精英伤害系数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础统计系数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本伤害系数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器伤害 + 珠宝Min-Max伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击系数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(暴击几率 * 暴击伤害) + 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO: 武器伤害范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能武器伤害系数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生技能武器伤害% * (100% +特定技能%) * (100%+元素伤害%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能系数的INC伤害：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能INC伤害 + 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英伤害系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英伤害% + 100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度系数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1225,7 +1301,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1313,6 +1389,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1598,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
@@ -4103,7 +4182,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4356,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4621,6 +4700,88 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9050E047-A21C-4AF0-8897-A6916D03A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0243BC74-4B73-4351-AA2E-2907DDB3DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1333,6 +1333,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1389,9 +1392,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1732,12 +1732,12 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1770,12 +1770,12 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1790,12 +1790,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1828,12 +1828,12 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -4437,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4453,11 +4453,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="15"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -4513,11 +4513,11 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4601,16 +4601,16 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -4706,28 +4706,28 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="17" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="17" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="17" t="s">
         <v>201</v>
       </c>
       <c r="B23" t="s">
@@ -4735,7 +4735,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="17" t="s">
         <v>202</v>
       </c>
       <c r="B24" t="s">
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="17" t="s">
         <v>204</v>
       </c>
       <c r="B25" t="s">
@@ -4751,7 +4751,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B26" t="s">
@@ -4759,7 +4759,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B27" t="s">
@@ -4767,7 +4767,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B28" t="s">
@@ -4775,7 +4775,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B29" t="s">

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0243BC74-4B73-4351-AA2E-2907DDB3DD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA127EE9-8063-4528-8911-CD243CE4CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -694,70 +694,22 @@
   </si>
   <si>
     <t>最大生命值</t>
-  </si>
-  <si>
-    <t>最大生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命回复</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>闪避</t>
-  </si>
-  <si>
-    <t>闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗效率</t>
-  </si>
-  <si>
-    <t>暴击率</t>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-  </si>
-  <si>
-    <t>易伤伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>易伤率</t>
-  </si>
-  <si>
-    <t>易伤率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>智慧</t>
-  </si>
-  <si>
-    <t>智慧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敏捷</t>
-  </si>
-  <si>
-    <t>敏捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -808,16 +760,10 @@
   </si>
   <si>
     <t>攻击范围</t>
-  </si>
-  <si>
-    <t>攻击范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视野</t>
-  </si>
-  <si>
-    <t>视野</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击范围百分比</t>
   </si>
   <si>
@@ -960,6 +902,150 @@
   </si>
   <si>
     <t>每秒攻击次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰锥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开阔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厉害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯哼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +1053,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,12 +1130,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFB2CACD"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1301,7 +1381,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1329,9 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1677,9 +1754,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1732,12 +1809,12 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1770,12 +1847,12 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1790,12 +1867,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1828,12 +1905,12 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2103,7 +2180,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>108</v>
@@ -2145,7 +2222,7 @@
         <v>1007</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>38</v>
@@ -2187,7 +2264,7 @@
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>109</v>
@@ -2229,7 +2306,7 @@
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>110</v>
@@ -2271,7 +2348,7 @@
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>199</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>111</v>
@@ -2313,7 +2390,7 @@
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>126</v>
@@ -2355,7 +2432,7 @@
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>127</v>
@@ -2397,7 +2474,7 @@
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>202</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>128</v>
@@ -2439,7 +2516,7 @@
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>129</v>
@@ -2481,7 +2558,7 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>120</v>
+        <v>204</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>130</v>
@@ -2523,7 +2600,7 @@
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>131</v>
@@ -2565,7 +2642,7 @@
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>127</v>
@@ -2607,7 +2684,7 @@
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>132</v>
@@ -2649,7 +2726,7 @@
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>133</v>
@@ -2691,9 +2768,11 @@
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="3"/>
       <c r="E26" s="3" t="b">
         <v>0</v>
       </c>
@@ -2731,9 +2810,11 @@
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
       </c>
@@ -2762,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -2771,9 +2852,11 @@
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3"/>
       <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
@@ -2802,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -2813,7 +2896,9 @@
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E29" s="3" t="b">
         <v>0</v>
       </c>
@@ -2842,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -2851,9 +2936,11 @@
         <v>1024</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="E30" s="3" t="b">
         <v>0</v>
       </c>
@@ -2882,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -2893,7 +2980,9 @@
       <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E31" s="3" t="b">
         <v>0</v>
       </c>
@@ -2922,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -2933,7 +3022,9 @@
       <c r="C32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E32" s="3" t="b">
         <v>0</v>
       </c>
@@ -2962,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -2971,9 +3062,11 @@
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="3"/>
       <c r="E33" s="3" t="b">
         <v>0</v>
       </c>
@@ -3002,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -3011,9 +3104,11 @@
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="3"/>
       <c r="E34" s="3" t="b">
         <v>0</v>
       </c>
@@ -3042,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -3051,9 +3146,11 @@
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="3"/>
       <c r="E35" s="3" t="b">
         <v>0</v>
       </c>
@@ -3082,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -3091,9 +3188,11 @@
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="3"/>
       <c r="E36" s="3" t="b">
         <v>0</v>
       </c>
@@ -3122,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -3131,9 +3230,11 @@
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
       </c>
@@ -3162,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -3173,7 +3274,9 @@
       <c r="C38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E38" s="3" t="b">
         <v>0</v>
       </c>
@@ -3202,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -3211,9 +3314,11 @@
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="3"/>
       <c r="E39" s="3" t="b">
         <v>0</v>
       </c>
@@ -3253,7 +3358,9 @@
       <c r="C40" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E40" s="3" t="b">
         <v>0</v>
       </c>
@@ -3282,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -3291,9 +3398,11 @@
         <v>1035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3322,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -3331,9 +3440,11 @@
         <v>1036</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E42" s="3" t="b">
         <v>0</v>
       </c>
@@ -3362,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -3371,9 +3482,11 @@
         <v>1037</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D43" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
       </c>
@@ -3402,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -3411,9 +3524,11 @@
         <v>1038</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="E44" s="3" t="b">
         <v>0</v>
       </c>
@@ -3442,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -3451,9 +3566,11 @@
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
       </c>
@@ -3482,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -3491,9 +3608,11 @@
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
       </c>
@@ -3522,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -3531,9 +3650,11 @@
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D47" s="3"/>
+        <v>230</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
       </c>
@@ -3562,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -3571,9 +3692,11 @@
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D48" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
       </c>
@@ -3602,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -3611,9 +3734,11 @@
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="3"/>
+        <v>220</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
       </c>
@@ -3642,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -3651,9 +3776,11 @@
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="E50" s="3" t="b">
         <v>0</v>
       </c>
@@ -3682,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -3691,9 +3818,11 @@
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="E51" s="3" t="b">
         <v>0</v>
       </c>
@@ -3722,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -3731,9 +3860,11 @@
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
       </c>
@@ -3762,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -3771,9 +3902,11 @@
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D53" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
       </c>
@@ -3802,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -3811,9 +3944,11 @@
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="E54" s="3" t="b">
         <v>0</v>
       </c>
@@ -3842,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -3851,9 +3986,11 @@
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" s="3"/>
+        <v>226</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
       </c>
@@ -3882,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -3891,9 +4028,11 @@
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D56" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
       </c>
@@ -3922,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -3931,9 +4070,11 @@
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
       </c>
@@ -3971,9 +4112,11 @@
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D58" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
       </c>
@@ -4002,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -4011,9 +4154,11 @@
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
       </c>
@@ -4042,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -4051,9 +4196,11 @@
         <v>1054</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
       </c>
@@ -4082,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -4091,9 +4238,11 @@
         <v>1055</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>175</v>
+      </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
       </c>
@@ -4122,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -4131,9 +4280,11 @@
         <v>1056</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
       </c>
@@ -4162,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4179,252 +4330,292 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A44" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="str">
-        <f>A1&amp;B1</f>
-        <v>攻击范围百分比</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C20" si="0">A2&amp;B2</f>
-        <v>视野百分比</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>最大生命值百分比</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>生命回复百分比</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>防御百分比</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>闪避百分比</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>幸运百分比</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>速度百分比</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>治疗效率百分比</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>暴击率百分比</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>暴击伤害百分比</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>易伤伤害百分比</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>易伤率百分比</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>魔力百分比</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>攻击速度百分比</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>力量百分比</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>智慧百分比</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>敏捷百分比</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>攻击范围百分比</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>视野百分比</v>
+    </row>
+    <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4437,7 +4628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4453,11 +4644,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="15"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -4513,11 +4704,11 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4601,16 +4792,16 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -4702,84 +4893,84 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>196</v>
+      <c r="A19" s="16" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>197</v>
+      <c r="A20" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>200</v>
+      <c r="A21" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>201</v>
+      <c r="A23" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>202</v>
+      <c r="A24" s="16" t="s">
+        <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>204</v>
+      <c r="A25" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>207</v>
+      <c r="A26" s="16" t="s">
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>209</v>
+      <c r="A27" s="16" t="s">
+        <v>190</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>211</v>
+      <c r="A28" s="16" t="s">
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>213</v>
+      <c r="A29" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA127EE9-8063-4528-8911-CD243CE4CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDEF968-30A2-4EBB-B3CE-6C1FB5CB5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="AbilityBuffs" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="229">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,42 +617,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火焰百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰抗性百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜抗性百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电抗性百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒素抗性百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理抗性百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,6 +1010,28 @@
   </si>
   <si>
     <t>重生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血舞蹈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLEX_MORE</t>
+  </si>
+  <si>
+    <t>formual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>([max_hp] - [hp])/100</t>
+  </si>
+  <si>
+    <t>([max_hp] - [hp])/100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1752,11 +1738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N62"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1774,11 +1760,12 @@
     <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="6.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -1814,9 +1801,10 @@
       </c>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1852,9 +1840,10 @@
       </c>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1872,9 +1861,10 @@
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1910,9 +1900,10 @@
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1934,11 +1925,14 @@
       <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1960,11 +1954,14 @@
       <c r="M6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1001</v>
@@ -2002,11 +1999,12 @@
       <c r="M7" s="5">
         <v>0</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1002</v>
@@ -2044,11 +2042,12 @@
       <c r="M8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3">
         <v>1003</v>
@@ -2086,11 +2085,12 @@
       <c r="M9" s="5">
         <v>0</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1004</v>
@@ -2128,11 +2128,12 @@
       <c r="M10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
         <v>1005</v>
@@ -2170,17 +2171,18 @@
       <c r="M11" s="5">
         <v>0</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="3">
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>108</v>
@@ -2212,11 +2214,12 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1007</v>
@@ -2254,17 +2257,18 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>109</v>
@@ -2296,17 +2300,18 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>110</v>
@@ -2338,17 +2343,18 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>111</v>
@@ -2380,20 +2386,21 @@
       <c r="M16" s="5">
         <v>0</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2417,25 +2424,26 @@
         <v>1011</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3">
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2459,25 +2467,26 @@
         <v>1012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5"/>
+      <c r="O18" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3">
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2501,25 +2510,26 @@
         <v>1013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3">
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2543,25 +2553,26 @@
         <v>1014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5"/>
+      <c r="O20" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3">
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2585,25 +2596,26 @@
         <v>1015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5"/>
+      <c r="O21" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2627,25 +2639,26 @@
         <v>1016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3">
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2669,25 +2682,26 @@
         <v>1017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M23" s="5">
         <v>0</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5"/>
+      <c r="O23" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -2711,25 +2725,26 @@
         <v>1018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M24" s="5">
         <v>0</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="3">
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -2753,25 +2768,26 @@
         <v>1019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M25" s="5">
         <v>0</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3">
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>0</v>
@@ -2795,25 +2811,26 @@
         <v>1020</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M26" s="5">
         <v>0</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="5"/>
+      <c r="O26" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="3">
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
@@ -2842,17 +2859,18 @@
       <c r="M27" s="5">
         <v>0</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N27" s="5"/>
+      <c r="O27" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="3">
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>58</v>
@@ -2884,11 +2902,12 @@
       <c r="M28" s="5">
         <v>0</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N28" s="5"/>
+      <c r="O28" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3">
         <v>1023</v>
@@ -2926,20 +2945,21 @@
       <c r="M29" s="5">
         <v>0</v>
       </c>
-      <c r="N29" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N29" s="5"/>
+      <c r="O29" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="3">
         <v>1024</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>0</v>
@@ -2968,11 +2988,12 @@
       <c r="M30" s="5">
         <v>0</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N30" s="5"/>
+      <c r="O30" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="3">
         <v>1025</v>
@@ -3010,11 +3031,12 @@
       <c r="M31" s="5">
         <v>0</v>
       </c>
-      <c r="N31" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N31" s="5"/>
+      <c r="O31" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>1026</v>
@@ -3052,17 +3074,18 @@
       <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N32" s="5"/>
+      <c r="O32" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
@@ -3094,17 +3117,18 @@
       <c r="M33" s="5">
         <v>0</v>
       </c>
-      <c r="N33" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N33" s="5"/>
+      <c r="O33" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="3">
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>56</v>
@@ -3136,17 +3160,18 @@
       <c r="M34" s="5">
         <v>0</v>
       </c>
-      <c r="N34" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N34" s="5"/>
+      <c r="O34" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>55</v>
@@ -3178,17 +3203,18 @@
       <c r="M35" s="5">
         <v>0</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="5"/>
+      <c r="O35" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3">
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>60</v>
@@ -3220,20 +3246,21 @@
       <c r="M36" s="5">
         <v>0</v>
       </c>
-      <c r="N36" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N36" s="5"/>
+      <c r="O36" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3">
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
@@ -3262,11 +3289,12 @@
       <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>1032</v>
@@ -3304,17 +3332,18 @@
       <c r="M38" s="5">
         <v>0</v>
       </c>
-      <c r="N38" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N38" s="5"/>
+      <c r="O38" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="3">
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>51</v>
@@ -3346,11 +3375,12 @@
       <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="5"/>
+      <c r="O39" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3">
         <v>1034</v>
@@ -3388,20 +3418,21 @@
       <c r="M40" s="5">
         <v>0</v>
       </c>
-      <c r="N40" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N40" s="5"/>
+      <c r="O40" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3">
         <v>1035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
@@ -3430,20 +3461,21 @@
       <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N41" s="5"/>
+      <c r="O41" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="3">
         <v>1036</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E42" s="3" t="b">
         <v>0</v>
@@ -3472,20 +3504,21 @@
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N42" s="5"/>
+      <c r="O42" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="3">
         <v>1037</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
@@ -3514,20 +3547,21 @@
       <c r="M43" s="5">
         <v>0</v>
       </c>
-      <c r="N43" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N43" s="5"/>
+      <c r="O43" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>1038</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E44" s="3" t="b">
         <v>0</v>
@@ -3556,20 +3590,21 @@
       <c r="M44" s="5">
         <v>0</v>
       </c>
-      <c r="N44" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N44" s="5"/>
+      <c r="O44" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="3">
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
@@ -3593,25 +3628,26 @@
         <v>1038</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N45" s="5"/>
+      <c r="O45" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
@@ -3635,25 +3671,26 @@
         <v>1039</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N46" s="5"/>
+      <c r="O46" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="3">
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
@@ -3677,25 +3714,26 @@
         <v>1040</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="N47" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N47" s="5"/>
+      <c r="O47" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3">
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
@@ -3719,25 +3757,26 @@
         <v>1041</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N48" s="5"/>
+      <c r="O48" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3">
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
@@ -3761,25 +3800,26 @@
         <v>1042</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N49" s="5"/>
+      <c r="O49" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E50" s="3" t="b">
         <v>0</v>
@@ -3803,25 +3843,26 @@
         <v>1043</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M50" s="5">
         <v>0</v>
       </c>
-      <c r="N50" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N50" s="5"/>
+      <c r="O50" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3">
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E51" s="3" t="b">
         <v>0</v>
@@ -3845,25 +3886,26 @@
         <v>1044</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
       </c>
-      <c r="N51" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N51" s="5"/>
+      <c r="O51" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3">
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
@@ -3887,25 +3929,26 @@
         <v>1045</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N52" s="5"/>
+      <c r="O52" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3">
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
@@ -3929,25 +3972,26 @@
         <v>1046</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N53" s="5"/>
+      <c r="O53" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3">
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E54" s="3" t="b">
         <v>0</v>
@@ -3971,25 +4015,26 @@
         <v>1047</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
       </c>
-      <c r="N54" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N54" s="5"/>
+      <c r="O54" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="3">
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
@@ -4013,25 +4058,26 @@
         <v>1048</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
       </c>
-      <c r="N55" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N55" s="5"/>
+      <c r="O55" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="3">
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
@@ -4055,25 +4101,26 @@
         <v>1049</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
       </c>
-      <c r="N56" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N56" s="5"/>
+      <c r="O56" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="3">
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
@@ -4097,25 +4144,26 @@
         <v>1050</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M57" s="5">
         <v>0</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="N57" s="5"/>
+      <c r="O57" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="3">
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
@@ -4139,25 +4187,26 @@
         <v>1051</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
       </c>
-      <c r="N58" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N58" s="5"/>
+      <c r="O58" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="3">
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
@@ -4181,16 +4230,17 @@
         <v>1052</v>
       </c>
       <c r="L59" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="5"/>
+      <c r="O59" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M59" s="5">
-        <v>0</v>
-      </c>
-      <c r="N59" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="3">
         <v>1054</v>
@@ -4199,7 +4249,7 @@
         <v>73</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
@@ -4223,25 +4273,26 @@
         <v>1053</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
       </c>
-      <c r="N60" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N60" s="5"/>
+      <c r="O60" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3">
         <v>1055</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
@@ -4265,25 +4316,26 @@
         <v>1054</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M61" s="5">
         <v>0</v>
       </c>
-      <c r="N61" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N61" s="5"/>
+      <c r="O61" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="3">
         <v>1056</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
@@ -4307,21 +4359,22 @@
         <v>1055</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M62" s="5">
         <v>0</v>
       </c>
-      <c r="N62" s="6" t="s">
-        <v>158</v>
+      <c r="N62" s="5"/>
+      <c r="O62" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="K3:O3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4330,295 +4383,480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>121</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="A17" s="3"/>
     </row>
     <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="A22" s="3"/>
     </row>
     <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="A23" s="3"/>
     </row>
     <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A24" s="3"/>
     </row>
     <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="A25" s="3"/>
     </row>
     <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="A26" s="3"/>
     </row>
     <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A27" s="3"/>
     </row>
     <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="A28" s="3"/>
     </row>
     <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="A29" s="3"/>
     </row>
     <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A32" s="3"/>
     </row>
     <row r="33" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>138</v>
-      </c>
+      <c r="A35" s="3"/>
     </row>
     <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="A36" s="3"/>
     </row>
     <row r="37" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="A37" s="3"/>
     </row>
     <row r="38" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="A38" s="3"/>
     </row>
     <row r="39" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="A39" s="3"/>
     </row>
     <row r="40" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="A40" s="3"/>
     </row>
     <row r="41" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>162</v>
-      </c>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="A43" s="3"/>
     </row>
     <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="A49" s="3"/>
     </row>
     <row r="50" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="A51" s="3"/>
     </row>
     <row r="52" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="A52" s="3"/>
     </row>
     <row r="53" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="A56" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4629,7 +4867,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4893,33 +5131,33 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -4927,50 +5165,50 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDEF968-30A2-4EBB-B3CE-6C1FB5CB5B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9A86A-D76B-42D3-A674-77B67AB5848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
     <sheet name="AbilityBuffs" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="MainBuffs" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="238">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1034,12 +1035,42 @@
     <t>([max_hp] - [hp])/100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害 + %s</t>
+  </si>
+  <si>
+    <t>伤害 + %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御 + %s</t>
+  </si>
+  <si>
+    <t>防御 + %s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INCREASE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,8 +1148,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Dream Han Sans J W18"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,8 +1223,14 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1357,6 +1401,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1367,7 +1435,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1456,6 +1524,9 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="A标题" xfId="1" xr:uid="{38665B28-1CA9-4169-992B-71FBDCAB8781}"/>
@@ -1738,11 +1809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O62"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4369,6 +4440,92 @@
         <v>149</v>
       </c>
     </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3">
+        <v>1057</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E63" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="36">
+        <v>0</v>
+      </c>
+      <c r="H63" s="36">
+        <v>0</v>
+      </c>
+      <c r="I63" s="36">
+        <v>0</v>
+      </c>
+      <c r="J63" s="36">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>1056</v>
+      </c>
+      <c r="L63" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M63" s="37">
+        <v>0</v>
+      </c>
+      <c r="N63" s="37"/>
+      <c r="O63" s="38" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3">
+        <v>1058</v>
+      </c>
+      <c r="C64" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="36">
+        <v>0</v>
+      </c>
+      <c r="H64" s="36">
+        <v>0</v>
+      </c>
+      <c r="I64" s="36">
+        <v>0</v>
+      </c>
+      <c r="J64" s="36">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1057</v>
+      </c>
+      <c r="L64" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="M64" s="37">
+        <v>0</v>
+      </c>
+      <c r="N64" s="37"/>
+      <c r="O64" s="38" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="K1:O1"/>
@@ -4385,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A70E9ED-200B-4E2A-A246-07D3C3D9231E}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4863,6 +5020,552 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B9E91-0C8B-457A-A47C-86F4B565998C}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H29"/>
   <sheetViews>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A9A86A-D76B-42D3-A674-77B67AB5848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F57CC-2D62-4CF3-B131-2D3BC752F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="239">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,10 +806,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际伤害：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表伤害 * 技能武器伤害系数 (*精英伤害系数)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1064,6 +1060,14 @@
   </si>
   <si>
     <t>INCREASE</t>
+  </si>
+  <si>
+    <t>最终伤害：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害 +</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1467,6 +1471,9 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1524,9 +1531,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="A标题" xfId="1" xr:uid="{38665B28-1CA9-4169-992B-71FBDCAB8781}"/>
@@ -1811,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
@@ -1867,13 +1871,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -1906,13 +1910,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -1927,13 +1931,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -1966,13 +1970,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -2026,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -2253,7 +2257,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>108</v>
@@ -2339,7 +2343,7 @@
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>109</v>
@@ -2382,7 +2386,7 @@
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>110</v>
@@ -2425,7 +2429,7 @@
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>111</v>
@@ -2468,7 +2472,7 @@
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>117</v>
@@ -2511,7 +2515,7 @@
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>118</v>
@@ -2554,7 +2558,7 @@
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>119</v>
@@ -2597,7 +2601,7 @@
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>120</v>
@@ -2640,7 +2644,7 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>121</v>
@@ -2683,7 +2687,7 @@
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>122</v>
@@ -2726,7 +2730,7 @@
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>118</v>
@@ -2769,7 +2773,7 @@
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>123</v>
@@ -2812,7 +2816,7 @@
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>124</v>
@@ -2855,7 +2859,7 @@
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>116</v>
@@ -2898,7 +2902,7 @@
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>126</v>
@@ -2941,7 +2945,7 @@
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>58</v>
@@ -3156,7 +3160,7 @@
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
@@ -3199,7 +3203,7 @@
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>56</v>
@@ -3242,7 +3246,7 @@
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>55</v>
@@ -3285,7 +3289,7 @@
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>60</v>
@@ -3328,7 +3332,7 @@
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>128</v>
@@ -3414,7 +3418,7 @@
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>51</v>
@@ -3672,7 +3676,7 @@
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>150</v>
@@ -3715,7 +3719,7 @@
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>151</v>
@@ -3758,7 +3762,7 @@
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>152</v>
@@ -3801,7 +3805,7 @@
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>153</v>
@@ -3844,7 +3848,7 @@
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>154</v>
@@ -3887,7 +3891,7 @@
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>155</v>
@@ -3930,7 +3934,7 @@
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>156</v>
@@ -3973,7 +3977,7 @@
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>157</v>
@@ -4016,7 +4020,7 @@
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>158</v>
@@ -4059,7 +4063,7 @@
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>159</v>
@@ -4102,7 +4106,7 @@
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>160</v>
@@ -4145,7 +4149,7 @@
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>161</v>
@@ -4188,7 +4192,7 @@
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>162</v>
@@ -4231,7 +4235,7 @@
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>163</v>
@@ -4274,7 +4278,7 @@
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>164</v>
@@ -4445,42 +4449,42 @@
       <c r="B63" s="3">
         <v>1057</v>
       </c>
-      <c r="C63" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E63" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G63" s="36">
-        <v>0</v>
-      </c>
-      <c r="H63" s="36">
-        <v>0</v>
-      </c>
-      <c r="I63" s="36">
-        <v>0</v>
-      </c>
-      <c r="J63" s="36">
+      <c r="C63" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G63" s="17">
+        <v>0</v>
+      </c>
+      <c r="H63" s="17">
+        <v>0</v>
+      </c>
+      <c r="I63" s="17">
+        <v>0</v>
+      </c>
+      <c r="J63" s="17">
         <v>0</v>
       </c>
       <c r="K63" s="5">
         <v>1056</v>
       </c>
-      <c r="L63" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="M63" s="37">
-        <v>0</v>
-      </c>
-      <c r="N63" s="37"/>
-      <c r="O63" s="38" t="s">
-        <v>230</v>
+      <c r="L63" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="M63" s="18">
+        <v>0</v>
+      </c>
+      <c r="N63" s="18"/>
+      <c r="O63" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4488,41 +4492,41 @@
       <c r="B64" s="3">
         <v>1058</v>
       </c>
-      <c r="C64" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="E64" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G64" s="36">
-        <v>0</v>
-      </c>
-      <c r="H64" s="36">
-        <v>0</v>
-      </c>
-      <c r="I64" s="36">
-        <v>0</v>
-      </c>
-      <c r="J64" s="36">
+      <c r="C64" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" s="17">
+        <v>0</v>
+      </c>
+      <c r="H64" s="17">
+        <v>0</v>
+      </c>
+      <c r="I64" s="17">
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
         <v>0</v>
       </c>
       <c r="K64" s="5">
         <v>1057</v>
       </c>
-      <c r="L64" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="M64" s="37">
-        <v>0</v>
-      </c>
-      <c r="N64" s="37"/>
-      <c r="O64" s="38" t="s">
+      <c r="L64" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0</v>
+      </c>
+      <c r="N64" s="18"/>
+      <c r="O64" s="19" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4596,13 +4600,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -4635,13 +4639,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -4656,13 +4660,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -4695,13 +4699,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -4755,7 +4759,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -4767,7 +4771,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="b">
@@ -4792,11 +4796,11 @@
         <v>1001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>104</v>
@@ -4817,11 +4821,11 @@
         <v>1002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>75</v>
@@ -4842,14 +4846,14 @@
         <v>1003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5063,13 +5067,13 @@
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5102,13 +5106,13 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="22"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5123,13 +5127,13 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -5162,13 +5166,13 @@
       <c r="J4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -5222,7 +5226,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -5234,10 +5238,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -5277,7 +5281,7 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
@@ -5567,15 +5571,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
@@ -5585,11 +5589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="15"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -5645,11 +5649,11 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5733,16 +5737,16 @@
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
@@ -5834,7 +5838,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5852,15 +5856,15 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -5868,50 +5872,58 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
         <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
         <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
         <v>179</v>
-      </c>
-      <c r="B26" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
         <v>181</v>
-      </c>
-      <c r="B27" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" t="s">
         <v>183</v>
-      </c>
-      <c r="B28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="B29" t="s">
-        <v>186</v>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B31" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F57CC-2D62-4CF3-B131-2D3BC752F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B19E3B6-3AC0-4255-B55B-E4523BC5E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
     <sheet name="AbilityBuffs" sheetId="4" r:id="rId2"/>
     <sheet name="MainBuffs" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="TalentBuffs" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="244">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,6 +1069,23 @@
   <si>
     <t>基础伤害 +</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏娃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有元素伤害 + 10</t>
+  </si>
+  <si>
+    <t>fire_damage</t>
+  </si>
+  <si>
+    <t>闪避率 + 10%</t>
   </si>
 </sst>
 </file>
@@ -5028,7 +5046,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:O8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5570,11 +5588,569 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
+    <col min="8" max="8" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="4" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5">
+        <v>5</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5">
+        <v>5</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1004</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="5">
+        <v>10</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1005</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5">
+        <v>1006</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5">
+        <v>10</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="5">
+        <v>1007</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5">
+        <v>1008</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5">
+        <v>10</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1009</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5717,7 +6293,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>69</v>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B19E3B6-3AC0-4255-B55B-E4523BC5E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B703488-D961-430D-BA2A-707BAD8AEFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="307">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -595,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒素抗性+ 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理抗性 + 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,10 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>毒素抗性+ 3%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MORE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1071,21 +1063,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害+10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有元素伤害 + 10</t>
   </si>
   <si>
     <t>fire_damage</t>
   </si>
   <si>
+    <t>毒素抗性 + 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒素抗性 + 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量、智慧、敏捷 + 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>闪避率 + 10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>冰霜伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>闪电伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>毒素伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>物理伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>火焰抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>冰霜抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>闪电抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>毒素抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>物理抗性 + {s}。</t>
+  </si>
+  <si>
+    <t>火焰 + {s}%。</t>
+  </si>
+  <si>
+    <t>冰霜 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪电 + {s}%。</t>
+  </si>
+  <si>
+    <t>毒素 + {s}%。</t>
+  </si>
+  <si>
+    <t>物理 + {s}%。</t>
+  </si>
+  <si>
+    <t>火焰抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>冰霜抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪电抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>毒素抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>物理抗性 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值 + {s}。</t>
+  </si>
+  <si>
+    <t>生命回复 + {s}。</t>
+  </si>
+  <si>
+    <t>防御 + {s}。</t>
+  </si>
+  <si>
+    <t>闪避 + {s}。</t>
+  </si>
+  <si>
+    <t>幸运 + {s}。</t>
+  </si>
+  <si>
+    <t>速度 + {s}。</t>
+  </si>
+  <si>
+    <t>治疗效率 + {s}。</t>
+  </si>
+  <si>
+    <t>暴击率 + {s}。</t>
+  </si>
+  <si>
+    <t>暴击伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>易伤伤害 + {s}。</t>
+  </si>
+  <si>
+    <t>易伤率 + {s}。</t>
+  </si>
+  <si>
+    <t>魔力 + {s}。</t>
+  </si>
+  <si>
+    <t>攻击速度 + {s}。</t>
+  </si>
+  <si>
+    <t>力量 + {s}。</t>
+  </si>
+  <si>
+    <t>智慧 + {s}。</t>
+  </si>
+  <si>
+    <t>敏捷 + {s}。</t>
+  </si>
+  <si>
+    <t>攻击范围 + {s}。</t>
+  </si>
+  <si>
+    <t>视野 + {s}。</t>
+  </si>
+  <si>
+    <t>攻击范围 + {s}%。</t>
+  </si>
+  <si>
+    <t>视野 + {s}%。</t>
+  </si>
+  <si>
+    <t>最大生命值 + {s}%。</t>
+  </si>
+  <si>
+    <t>生命回复 + {s}%。</t>
+  </si>
+  <si>
+    <t>防御 + {s}%。</t>
+  </si>
+  <si>
+    <t>闪避 + {s}%。</t>
+  </si>
+  <si>
+    <t>幸运 + {s}%。</t>
+  </si>
+  <si>
+    <t>速度 + {s}%。</t>
+  </si>
+  <si>
+    <t>治疗效率 + {s}%。</t>
+  </si>
+  <si>
+    <t>暴击率 + {s}%。</t>
+  </si>
+  <si>
+    <t>暴击伤害 + {s}%。</t>
+  </si>
+  <si>
+    <t>易伤伤害 + {s}%。</t>
+  </si>
+  <si>
+    <t>易伤率 + {s}%。</t>
+  </si>
+  <si>
+    <t>魔力 + {s}%。</t>
+  </si>
+  <si>
+    <t>攻击速度 + {s}%。</t>
+  </si>
+  <si>
+    <t>力量 + {s}%。</t>
+  </si>
+  <si>
+    <t>智慧 + {s}%。</t>
+  </si>
+  <si>
+    <t>敏捷 + {s}%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御 + {s}。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始！+1 物理伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://icon.svg</t>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗天赋点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害 + {s}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1834,8 +2031,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2048,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -2060,7 +2257,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>39</v>
@@ -2149,7 +2346,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="3" t="b">
         <v>0</v>
@@ -2192,7 +2389,7 @@
         <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
@@ -2235,7 +2432,7 @@
         <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3" t="b">
         <v>0</v>
@@ -2275,7 +2472,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>108</v>
@@ -2361,7 +2558,7 @@
         <v>1008</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>109</v>
@@ -2404,10 +2601,10 @@
         <v>1009</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>0</v>
@@ -2447,10 +2644,10 @@
         <v>1010</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3" t="b">
         <v>0</v>
@@ -2490,10 +2687,10 @@
         <v>1011</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>0</v>
@@ -2517,7 +2714,7 @@
         <v>1011</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -2533,10 +2730,10 @@
         <v>1012</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
@@ -2560,7 +2757,7 @@
         <v>1012</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -2576,10 +2773,10 @@
         <v>1013</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="3" t="b">
         <v>0</v>
@@ -2603,7 +2800,7 @@
         <v>1013</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -2619,10 +2816,10 @@
         <v>1014</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="3" t="b">
         <v>0</v>
@@ -2646,7 +2843,7 @@
         <v>1014</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -2662,10 +2859,10 @@
         <v>1015</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="3" t="b">
         <v>0</v>
@@ -2689,7 +2886,7 @@
         <v>1015</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -2705,10 +2902,10 @@
         <v>1016</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
@@ -2732,7 +2929,7 @@
         <v>1016</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M22" s="5">
         <v>0</v>
@@ -2748,10 +2945,10 @@
         <v>1017</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
@@ -2775,7 +2972,7 @@
         <v>1017</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M23" s="5">
         <v>0</v>
@@ -2791,10 +2988,10 @@
         <v>1018</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
@@ -2818,7 +3015,7 @@
         <v>1018</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M24" s="5">
         <v>0</v>
@@ -2834,10 +3031,10 @@
         <v>1019</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="E25" s="3" t="b">
         <v>0</v>
@@ -2861,7 +3058,7 @@
         <v>1019</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M25" s="5">
         <v>0</v>
@@ -2877,10 +3074,10 @@
         <v>1020</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>0</v>
@@ -2904,7 +3101,7 @@
         <v>1020</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M26" s="5">
         <v>0</v>
@@ -2920,10 +3117,10 @@
         <v>1021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
@@ -2954,7 +3151,7 @@
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
@@ -2963,7 +3160,7 @@
         <v>1022</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>58</v>
@@ -2997,7 +3194,7 @@
       </c>
       <c r="N28" s="5"/>
       <c r="O28" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
@@ -3040,7 +3237,7 @@
       </c>
       <c r="N29" s="5"/>
       <c r="O29" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
@@ -3049,10 +3246,10 @@
         <v>1024</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3" t="b">
         <v>0</v>
@@ -3083,7 +3280,7 @@
       </c>
       <c r="N30" s="5"/>
       <c r="O30" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
@@ -3126,7 +3323,7 @@
       </c>
       <c r="N31" s="5"/>
       <c r="O31" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
@@ -3169,7 +3366,7 @@
       </c>
       <c r="N32" s="5"/>
       <c r="O32" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
@@ -3178,7 +3375,7 @@
         <v>1027</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>62</v>
@@ -3212,7 +3409,7 @@
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
@@ -3221,7 +3418,7 @@
         <v>1028</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>56</v>
@@ -3255,7 +3452,7 @@
       </c>
       <c r="N34" s="5"/>
       <c r="O34" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
@@ -3264,7 +3461,7 @@
         <v>1029</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>55</v>
@@ -3298,7 +3495,7 @@
       </c>
       <c r="N35" s="5"/>
       <c r="O35" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
@@ -3307,7 +3504,7 @@
         <v>1030</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>60</v>
@@ -3341,7 +3538,7 @@
       </c>
       <c r="N36" s="5"/>
       <c r="O36" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
@@ -3350,10 +3547,10 @@
         <v>1031</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E37" s="3" t="b">
         <v>0</v>
@@ -3384,7 +3581,7 @@
       </c>
       <c r="N37" s="5"/>
       <c r="O37" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
@@ -3427,7 +3624,7 @@
       </c>
       <c r="N38" s="5"/>
       <c r="O38" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
@@ -3436,7 +3633,7 @@
         <v>1033</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>51</v>
@@ -3513,7 +3710,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -3522,10 +3719,10 @@
         <v>1035</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
@@ -3556,7 +3753,7 @@
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3565,10 +3762,10 @@
         <v>1036</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E42" s="3" t="b">
         <v>0</v>
@@ -3599,7 +3796,7 @@
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3608,10 +3805,10 @@
         <v>1037</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E43" s="3" t="b">
         <v>0</v>
@@ -3642,7 +3839,7 @@
       </c>
       <c r="N43" s="5"/>
       <c r="O43" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -3651,10 +3848,10 @@
         <v>1038</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E44" s="3" t="b">
         <v>0</v>
@@ -3685,7 +3882,7 @@
       </c>
       <c r="N44" s="5"/>
       <c r="O44" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3694,10 +3891,10 @@
         <v>1039</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
@@ -3721,14 +3918,14 @@
         <v>1038</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M45" s="5">
         <v>0</v>
       </c>
       <c r="N45" s="5"/>
       <c r="O45" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -3737,10 +3934,10 @@
         <v>1040</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
@@ -3764,14 +3961,14 @@
         <v>1039</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
@@ -3780,10 +3977,10 @@
         <v>1041</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
@@ -3807,14 +4004,14 @@
         <v>1040</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M47" s="5">
         <v>0</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -3823,10 +4020,10 @@
         <v>1042</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
@@ -3850,14 +4047,14 @@
         <v>1041</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
       <c r="N48" s="5"/>
       <c r="O48" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -3866,10 +4063,10 @@
         <v>1043</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
@@ -3893,14 +4090,14 @@
         <v>1042</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M49" s="5">
         <v>0</v>
       </c>
       <c r="N49" s="5"/>
       <c r="O49" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -3909,10 +4106,10 @@
         <v>1044</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E50" s="3" t="b">
         <v>0</v>
@@ -3936,14 +4133,14 @@
         <v>1043</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M50" s="5">
         <v>0</v>
       </c>
       <c r="N50" s="5"/>
       <c r="O50" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -3952,10 +4149,10 @@
         <v>1045</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E51" s="3" t="b">
         <v>0</v>
@@ -3979,14 +4176,14 @@
         <v>1044</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
       </c>
       <c r="N51" s="5"/>
       <c r="O51" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -3995,10 +4192,10 @@
         <v>1046</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
@@ -4022,14 +4219,14 @@
         <v>1045</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
       </c>
       <c r="N52" s="5"/>
       <c r="O52" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -4038,10 +4235,10 @@
         <v>1047</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
@@ -4065,14 +4262,14 @@
         <v>1046</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M53" s="5">
         <v>0</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -4081,10 +4278,10 @@
         <v>1048</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E54" s="3" t="b">
         <v>0</v>
@@ -4108,14 +4305,14 @@
         <v>1047</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -4124,10 +4321,10 @@
         <v>1049</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
@@ -4151,14 +4348,14 @@
         <v>1048</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M55" s="5">
         <v>0</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -4167,10 +4364,10 @@
         <v>1050</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
@@ -4194,14 +4391,14 @@
         <v>1049</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M56" s="5">
         <v>0</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -4210,10 +4407,10 @@
         <v>1051</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
@@ -4237,7 +4434,7 @@
         <v>1050</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M57" s="5">
         <v>0</v>
@@ -4253,10 +4450,10 @@
         <v>1052</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
@@ -4280,14 +4477,14 @@
         <v>1051</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M58" s="5">
         <v>0</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
@@ -4296,10 +4493,10 @@
         <v>1053</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
@@ -4323,14 +4520,14 @@
         <v>1052</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M59" s="5">
         <v>0</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -4342,7 +4539,7 @@
         <v>73</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
@@ -4366,14 +4563,14 @@
         <v>1053</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -4382,10 +4579,10 @@
         <v>1055</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
@@ -4409,14 +4606,14 @@
         <v>1054</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M61" s="5">
         <v>0</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -4425,10 +4622,10 @@
         <v>1056</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>0</v>
@@ -4452,14 +4649,14 @@
         <v>1055</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M62" s="5">
         <v>0</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -4468,10 +4665,10 @@
         <v>1057</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E63" s="17" t="b">
         <v>0</v>
@@ -4495,14 +4692,14 @@
         <v>1056</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M63" s="18">
         <v>0</v>
       </c>
       <c r="N63" s="18"/>
       <c r="O63" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -4511,10 +4708,10 @@
         <v>1058</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E64" s="17" t="b">
         <v>0</v>
@@ -4538,14 +4735,14 @@
         <v>1057</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M64" s="18">
         <v>0</v>
       </c>
       <c r="N64" s="18"/>
       <c r="O64" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4974,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -4789,7 +4986,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="b">
@@ -4814,11 +5011,11 @@
         <v>1001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>104</v>
@@ -4839,11 +5036,11 @@
         <v>1002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>75</v>
@@ -4864,14 +5061,14 @@
         <v>1003</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -5244,7 +5441,7 @@
         <v>17</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>18</v>
@@ -5256,10 +5453,10 @@
         <v>1001</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" s="3" t="b">
         <v>0</v>
@@ -5299,7 +5496,7 @@
         <v>1002</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
@@ -5589,32 +5786,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:J15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
-    <col min="9" max="9" width="4" customWidth="1"/>
-    <col min="10" max="10" width="5.125" customWidth="1"/>
-    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5625,35 +5823,38 @@
         <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="21"/>
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
-      <c r="O1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O1" s="21"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -5667,13 +5868,13 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>9</v>
@@ -5684,15 +5885,18 @@
       <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+    </row>
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -5705,15 +5909,16 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="30"/>
       <c r="M3" s="30"/>
       <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
+    </row>
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -5724,35 +5929,38 @@
         <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="L4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-    </row>
-    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
+    </row>
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -5765,23 +5973,24 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2"/>
+      <c r="L5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -5794,89 +6003,116 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
       <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>1001</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>1001</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N8" s="5">
         <v>5</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5">
-        <v>1002</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="5">
-        <v>5</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5887,78 +6123,66 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="5">
+      <c r="K9" s="3"/>
+      <c r="L9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="5">
+        <v>5</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="5">
         <v>1003</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N10" s="5">
         <v>5</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3">
-        <v>1002</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1004</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="5">
-        <v>10</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O10" s="5"/>
+      <c r="P10" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3">
-        <v>1003</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="b">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="F11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
@@ -5969,46 +6193,70 @@
       <c r="J11" s="3">
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1004</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="5">
+        <v>10</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <v>1005</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N12" s="5">
         <v>10</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6" t="s">
+      <c r="O12" s="5"/>
+      <c r="P12" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5">
-        <v>1006</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="5">
-        <v>10</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6019,21 +6267,22 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="5">
-        <v>1007</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="5">
+        <v>1006</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>10</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="O13" s="5"/>
+      <c r="P13" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6044,101 +6293,2721 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="5">
+      <c r="K14" s="3"/>
+      <c r="L14" s="5">
+        <v>1007</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="5">
+        <v>10</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5">
         <v>1008</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N15" s="5">
         <v>10</v>
       </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6" t="s">
+      <c r="O15" s="5"/>
+      <c r="P15" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1009</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1001</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1002</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1003</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <v>1004</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="M20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>9</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1005</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1006</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>11</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1007</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>1008</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
         <v>1009</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="6" t="s">
+      <c r="M25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>14</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
+        <v>1010</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <v>1011</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="5">
+        <v>1012</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1013</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
+        <v>1014</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5">
+        <v>1015</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
+        <v>1016</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3">
+        <v>21</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5">
+        <v>1017</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0</v>
+      </c>
+      <c r="O33" s="5"/>
+      <c r="P33" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1018</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0</v>
+      </c>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3">
+        <v>23</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1019</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0</v>
+      </c>
+      <c r="O35" s="5"/>
+      <c r="P35" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5">
+        <v>1020</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0</v>
+      </c>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1020</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0</v>
+      </c>
+      <c r="O37" s="5"/>
+      <c r="P37" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3">
+        <v>26</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>1021</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0</v>
+      </c>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1022</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5"/>
+      <c r="P39" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3">
+        <v>28</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>1023</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0</v>
+      </c>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>1024</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0</v>
+      </c>
+      <c r="O41" s="5"/>
+      <c r="P41" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1025</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0</v>
+      </c>
+      <c r="O42" s="5"/>
+      <c r="P42" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>31</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1026</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0</v>
+      </c>
+      <c r="O43" s="5"/>
+      <c r="P43" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3">
+        <v>32</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1027</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0</v>
+      </c>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>33</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1028</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0</v>
+      </c>
+      <c r="O45" s="5"/>
+      <c r="P45" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1029</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0</v>
+      </c>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3">
+        <v>35</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1030</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0</v>
+      </c>
+      <c r="O47" s="5"/>
+      <c r="P47" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="6"/>
+    <row r="48" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3">
+        <v>36</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1031</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0</v>
+      </c>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3">
+        <v>37</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1032</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0</v>
+      </c>
+      <c r="O49" s="5"/>
+      <c r="P49" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3">
+        <v>38</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1033</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0</v>
+      </c>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3">
+        <v>39</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="5">
+        <v>1034</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0</v>
+      </c>
+      <c r="O51" s="5"/>
+      <c r="P51" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3">
+        <v>40</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="5">
+        <v>1035</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3">
+        <v>41</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1036</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5"/>
+      <c r="P53" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3">
+        <v>42</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="5">
+        <v>1037</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1038</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5"/>
+      <c r="P55" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3">
+        <v>44</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5">
+        <v>1039</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3">
+        <v>45</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="5">
+        <v>1040</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3">
+        <v>46</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>1041</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0</v>
+      </c>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3">
+        <v>47</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="5">
+        <v>1042</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0</v>
+      </c>
+      <c r="O59" s="5"/>
+      <c r="P59" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3">
+        <v>48</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="5">
+        <v>1043</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0</v>
+      </c>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1044</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61" s="5"/>
+      <c r="P61" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3">
+        <v>50</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>1045</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0</v>
+      </c>
+      <c r="O62" s="5"/>
+      <c r="P62" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3">
+        <v>51</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1046</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0</v>
+      </c>
+      <c r="O63" s="5"/>
+      <c r="P63" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3">
+        <v>52</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>1047</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0</v>
+      </c>
+      <c r="O64" s="5"/>
+      <c r="P64" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3">
+        <v>53</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>1048</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0</v>
+      </c>
+      <c r="O65" s="5"/>
+      <c r="P65" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3">
+        <v>54</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>1049</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0</v>
+      </c>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3">
+        <v>55</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1050</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0</v>
+      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3">
+        <v>56</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1051</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0</v>
+      </c>
+      <c r="O68" s="5"/>
+      <c r="P68" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3">
+        <v>57</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1052</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0</v>
+      </c>
+      <c r="O69" s="5"/>
+      <c r="P69" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3">
+        <v>58</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1053</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0</v>
+      </c>
+      <c r="O70" s="5"/>
+      <c r="P70" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3">
+        <v>59</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1054</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0</v>
+      </c>
+      <c r="O71" s="5"/>
+      <c r="P71" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3">
+        <v>60</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1055</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0</v>
+      </c>
+      <c r="O72" s="5"/>
+      <c r="P72" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3">
+        <v>61</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="17">
+        <v>0</v>
+      </c>
+      <c r="I73" s="17">
+        <v>0</v>
+      </c>
+      <c r="J73" s="17">
+        <v>0</v>
+      </c>
+      <c r="K73" s="17">
+        <v>0</v>
+      </c>
+      <c r="L73" s="5">
+        <v>1057</v>
+      </c>
+      <c r="M73" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="N73" s="18">
+        <v>0</v>
+      </c>
+      <c r="O73" s="18"/>
+      <c r="P73" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="L4:P4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6414,33 +9283,33 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
@@ -6448,58 +9317,58 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B703488-D961-430D-BA2A-707BAD8AEFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB78644-1A8E-4E9F-8A96-CCF8302C425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -5240,10 +5240,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B9E91-0C8B-457A-A47C-86F4B565998C}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>23</v>
@@ -5770,6 +5770,23 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5788,7 +5805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB78644-1A8E-4E9F-8A96-CCF8302C425E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8BC21-5801-4177-9586-EE9E41B5E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
     <sheet name="AbilityBuffs" sheetId="4" r:id="rId2"/>
     <sheet name="MainBuffs" sheetId="5" r:id="rId3"/>
-    <sheet name="TalentBuffs" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="GoldBuffs" sheetId="7" r:id="rId4"/>
+    <sheet name="TalentBuffs" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="312">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1282,6 +1283,26 @@
   </si>
   <si>
     <t>伤害 + {s}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础伤害变为 2 倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运变为 2 倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度变为 2 倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4762,7 +4783,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5242,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B9E91-0C8B-457A-A47C-86F4B565998C}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5802,10 +5823,390 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="4.75" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
+    <col min="11" max="11" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1001</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>10002</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1002</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="K4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -9031,7 +9432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H31"/>
   <sheetViews>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D8BC21-5801-4177-9586-EE9E41B5E18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156462B4-34C4-4703-BBC1-971CA3B854C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -2051,9 +2051,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4783,7 +4783,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>222</v>
@@ -5054,7 +5054,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>222</v>
@@ -5079,7 +5079,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="5">
-        <v>1003</v>
+        <v>2003</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>222</v>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5498,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>23</v>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>1003</v>
+        <v>3002</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>23</v>
@@ -5826,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5">
-        <v>1001</v>
+        <v>4001</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>123</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>1002</v>
+        <v>4002</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>123</v>
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5">
-        <v>1003</v>
+        <v>4003</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>123</v>
@@ -6206,8 +6206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453EC19B-E788-449C-92DD-A1CD3E6BA512}">
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>1001</v>
+        <v>5001</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>23</v>
@@ -6517,7 +6517,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>1001</v>
+        <v>5002</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>23</v>
@@ -6543,7 +6543,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="5">
-        <v>1002</v>
+        <v>5003</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>23</v>
@@ -6569,7 +6569,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="5">
-        <v>1003</v>
+        <v>5004</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>23</v>
@@ -6615,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="5">
-        <v>1004</v>
+        <v>5005</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>23</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <v>1005</v>
+        <v>5006</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>23</v>
@@ -6687,7 +6687,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="5">
-        <v>1006</v>
+        <v>5007</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>23</v>
@@ -6713,7 +6713,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="5">
-        <v>1007</v>
+        <v>5008</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>23</v>
@@ -6739,7 +6739,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="5">
-        <v>1008</v>
+        <v>5009</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>23</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>1009</v>
+        <v>5010</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>123</v>
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <v>1001</v>
+        <v>5011</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>23</v>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>1002</v>
+        <v>5012</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>23</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="5">
-        <v>1003</v>
+        <v>5013</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>23</v>
@@ -6969,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>1004</v>
+        <v>5014</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>23</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>1005</v>
+        <v>5015</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>23</v>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="5">
-        <v>1006</v>
+        <v>5016</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>23</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="5">
-        <v>1007</v>
+        <v>5017</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>23</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="5">
-        <v>1008</v>
+        <v>5018</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>23</v>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>1009</v>
+        <v>5019</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>23</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="5">
-        <v>1010</v>
+        <v>5020</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>23</v>
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <v>1011</v>
+        <v>5021</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>123</v>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="5">
-        <v>1012</v>
+        <v>5022</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>123</v>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="5">
-        <v>1013</v>
+        <v>5023</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>123</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>1014</v>
+        <v>5024</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>123</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="5">
-        <v>1015</v>
+        <v>5025</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>123</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="5">
-        <v>1016</v>
+        <v>5026</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>123</v>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="5">
-        <v>1017</v>
+        <v>5027</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>123</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="5">
-        <v>1018</v>
+        <v>5028</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>123</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="5">
-        <v>1019</v>
+        <v>5029</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>123</v>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="5">
-        <v>1020</v>
+        <v>5030</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>123</v>
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="5">
-        <v>1020</v>
+        <v>5031</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>23</v>
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="5">
-        <v>1021</v>
+        <v>5032</v>
       </c>
       <c r="M38" s="5" t="s">
         <v>23</v>
@@ -7843,7 +7843,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="5">
-        <v>1022</v>
+        <v>5033</v>
       </c>
       <c r="M39" s="5" t="s">
         <v>23</v>
@@ -7889,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="5">
-        <v>1023</v>
+        <v>5034</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>23</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="5">
-        <v>1024</v>
+        <v>5035</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>23</v>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="5">
-        <v>1025</v>
+        <v>5036</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>23</v>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="5">
-        <v>1026</v>
+        <v>5037</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>23</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>1027</v>
+        <v>5038</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>23</v>
@@ -8119,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="5">
-        <v>1028</v>
+        <v>5039</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>23</v>
@@ -8165,7 +8165,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="5">
-        <v>1029</v>
+        <v>5040</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>23</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>1030</v>
+        <v>5041</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>23</v>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>1031</v>
+        <v>5042</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>23</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="5">
-        <v>1032</v>
+        <v>5043</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>23</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>1033</v>
+        <v>5044</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>23</v>
@@ -8395,7 +8395,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>1034</v>
+        <v>5045</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>23</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>1035</v>
+        <v>5046</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>23</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="5">
-        <v>1036</v>
+        <v>5047</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>23</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="5">
-        <v>1037</v>
+        <v>5048</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>23</v>
@@ -8579,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="5">
-        <v>1038</v>
+        <v>5049</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>123</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="L56" s="5">
-        <v>1039</v>
+        <v>5050</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>123</v>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="5">
-        <v>1040</v>
+        <v>5051</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>123</v>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="5">
-        <v>1041</v>
+        <v>5052</v>
       </c>
       <c r="M58" s="5" t="s">
         <v>123</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="L59" s="5">
-        <v>1042</v>
+        <v>5053</v>
       </c>
       <c r="M59" s="5" t="s">
         <v>123</v>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="5">
-        <v>1043</v>
+        <v>5054</v>
       </c>
       <c r="M60" s="5" t="s">
         <v>123</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="5">
-        <v>1044</v>
+        <v>5055</v>
       </c>
       <c r="M61" s="5" t="s">
         <v>123</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>1045</v>
+        <v>5056</v>
       </c>
       <c r="M62" s="5" t="s">
         <v>123</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="L63" s="5">
-        <v>1046</v>
+        <v>5057</v>
       </c>
       <c r="M63" s="5" t="s">
         <v>123</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="L64" s="5">
-        <v>1047</v>
+        <v>5058</v>
       </c>
       <c r="M64" s="5" t="s">
         <v>123</v>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
       <c r="L65" s="5">
-        <v>1048</v>
+        <v>5059</v>
       </c>
       <c r="M65" s="5" t="s">
         <v>123</v>
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="L66" s="5">
-        <v>1049</v>
+        <v>5060</v>
       </c>
       <c r="M66" s="5" t="s">
         <v>123</v>
@@ -9131,7 +9131,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="5">
-        <v>1050</v>
+        <v>5061</v>
       </c>
       <c r="M67" s="5" t="s">
         <v>123</v>
@@ -9177,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="L68" s="5">
-        <v>1051</v>
+        <v>5062</v>
       </c>
       <c r="M68" s="5" t="s">
         <v>123</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="L69" s="5">
-        <v>1052</v>
+        <v>5063</v>
       </c>
       <c r="M69" s="5" t="s">
         <v>123</v>
@@ -9269,7 +9269,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="5">
-        <v>1053</v>
+        <v>5064</v>
       </c>
       <c r="M70" s="5" t="s">
         <v>123</v>
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="L71" s="5">
-        <v>1054</v>
+        <v>5065</v>
       </c>
       <c r="M71" s="5" t="s">
         <v>123</v>
@@ -9361,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="L72" s="5">
-        <v>1055</v>
+        <v>5066</v>
       </c>
       <c r="M72" s="5" t="s">
         <v>123</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="L73" s="5">
-        <v>1057</v>
+        <v>5067</v>
       </c>
       <c r="M73" s="18" t="s">
         <v>234</v>
@@ -9436,7 +9436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3669F6C6-1435-4327-A42E-EFFB63C4869F}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156462B4-34C4-4703-BBC1-971CA3B854C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AD902-94C5-48FA-9971-7B88ED805424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="314">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1290,19 +1290,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基础伤害变为 2 倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幸运变为 2 倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度变为 2 倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急速</t>
+    <t>基础伤害 +0.1 倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运 +0.1 倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLEX_MORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMPLEX_INCREASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage] * 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[luck] * 0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2051,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5824,10 +5832,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6077,12 +6085,12 @@
         <v>4001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5"/>
+        <v>310</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="O7" s="6" t="s">
         <v>75</v>
       </c>
@@ -6120,75 +6128,32 @@
         <v>4002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M8" s="5">
-        <v>2</v>
-      </c>
-      <c r="N8" s="5"/>
+        <v>311</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="O8" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="3">
-        <v>10003</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>4003</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" s="5">
-        <v>2</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-      <c r="O9" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
+      <c r="O9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DataBase/Datas/Buffs.xlsx
+++ b/DataBase/Datas/Buffs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585AD902-94C5-48FA-9971-7B88ED805424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069FBB4A-8345-4447-BDED-40DA10C6B8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="322">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,19 +1298,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>COMPLEX_MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>COMPLEX_INCREASE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[damage] * 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[luck] * 0.1</t>
+    <t>获得额外闪电伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage] * 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外毒素伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外火焰伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外冰霜伤害，值为物理伤害的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外冰霜抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[physical_resistance] * 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外火焰抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外雷电抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得额外毒素抗性，值为物理抗性的 3%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害 +15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,8 +2092,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3051,7 +3083,7 @@
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
@@ -5832,15 +5864,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A952FC-DB3B-4902-9516-CE1F25077721}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
@@ -6085,12 +6117,12 @@
         <v>4001</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>312</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N7" s="5"/>
       <c r="O7" s="6" t="s">
         <v>75</v>
       </c>
@@ -6128,32 +6160,486 @@
         <v>4002</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>313</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N8" s="5"/>
       <c r="O8" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
+      <c r="B9" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4003</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4004</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4005</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4006</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>4007</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>10008</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>4008</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>4009</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>4010</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>4011</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
